--- a/2026/Security Manager Job Research 2026.xlsx
+++ b/2026/Security Manager Job Research 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57509e41282bb22f/Desktop/Work/Role Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8ACAD087-1016-413D-A608-45628FE2E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6758CC1E-350D-4914-8D59-37F2DA507899}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8ACAD087-1016-413D-A608-45628FE2E67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D18881-DBD1-4519-9CD6-A1A1131283F8}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="870" windowWidth="28800" windowHeight="17010" xr2:uid="{8A2D5D1A-5EF9-48F7-BE7A-E9B82333B95F}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{8A2D5D1A-5EF9-48F7-BE7A-E9B82333B95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -24,18 +24,18 @@
     <sheet name="Additional Resources" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Skills!$A$2:$A$47</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Skills!$A$2:$A$56</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Skills!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Skills!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Skills!$C$2:$C$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Skills!$C$2:$C$47</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Certification!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Certification!$E$2:$E$53</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skills!$C$2:$C$56</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Certification!$A$2:$A$53</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Certification!$E$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Certification!$E$2:$E$53</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Certification!$A$2:$A$53</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Certification!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Certification!$E$2:$E$53</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Skills!$A$2:$A$47</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Skills!$A$2:$A$56</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Skills!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Skills!$C$2:$C$56</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Certification!$A$2:$A$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="296">
   <si>
     <t>Pay Range</t>
   </si>
@@ -908,6 +908,33 @@
   </si>
   <si>
     <t>Security Manager Research 2026</t>
+  </si>
+  <si>
+    <t>Soft Skills: Leadership</t>
+  </si>
+  <si>
+    <t>Soft Skills: Motivation</t>
+  </si>
+  <si>
+    <t>Soft Skills: Delegation</t>
+  </si>
+  <si>
+    <t>Soft Skills: Emotional Intelligence</t>
+  </si>
+  <si>
+    <t>Soft Skills: Relationship-Building</t>
+  </si>
+  <si>
+    <t>Soft Skills: Time Management</t>
+  </si>
+  <si>
+    <t>Soft Skills: Conflict Resolution</t>
+  </si>
+  <si>
+    <t>Soft Skills: Business Acumen</t>
+  </si>
+  <si>
+    <t>Soft Skills: Strategic Thinking</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1159,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Skills!$A$2:$A$48</c:f>
+              <c:f>Skills!$A$2:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>AppSec: SAST, DAST, Etc.</c:v>
                 </c:pt>
@@ -1241,36 +1268,63 @@
                   <c:v>Soft Skills: Business Review</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>Soft Skills: Business Acumen</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Soft Skills: Leadership</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>Soft Skills: Legal Review</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>Soft Skills: Interpersonal Skills</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>Soft Skills: Motivation</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Soft Skills: Delegation</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Soft Skills: Emotional Intelligence</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Soft Skills: Relationship-Building</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Soft Skills: Time Management</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Soft Skills: Conflict Resolution</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Soft Skills: Strategic Thinking</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>Soft Skills: Verbal Communication</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>Soft Skills: Written Communication</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>Technical Writing, Diagramming, &amp; Documentation</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>Ticket Management</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>Threat Research / Intelligence / Hunting</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>Threat Modeling</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>Vulnerability Testing / Scanning</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>Virtualization / Hyper-V / Vmware / VDI</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>Writing &amp; Management of Governance: Policies, Standards, Procedures</c:v>
                 </c:pt>
               </c:strCache>
@@ -1278,10 +1332,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Skills!$C$2:$C$48</c:f>
+              <c:f>Skills!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="56"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3114,7 +3168,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Skills!$A$5,Skills!$A$18,Skills!$A$20,Skills!$A$30,Skills!$A$33,Skills!$A$39,Skills!$A$40,Skills!$A$41,Skills!$A$45,Skills!$A$47)</c:f>
+              <c:f>(Skills!$A$5,Skills!$A$18,Skills!$A$20,Skills!$A$30,Skills!$A$33,Skills!$A$48,Skills!$A$49,Skills!$A$50,Skills!$A$54,Skills!$A$56)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3152,7 +3206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Skills!$C$5,Skills!$C$18,Skills!$C$20,Skills!$C$30,Skills!$C$33,Skills!$C$39,Skills!$C$40,Skills!$C$41,Skills!$C$45,Skills!$C$47)</c:f>
+              <c:f>(Skills!$C$5,Skills!$C$18,Skills!$C$20,Skills!$C$30,Skills!$C$33,Skills!$C$48,Skills!$C$49,Skills!$C$50,Skills!$C$54,Skills!$C$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3618,7 +3672,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Skills!$A$5,Skills!$A$18,Skills!$A$20,Skills!$A$30,Skills!$A$33,Skills!$A$39,Skills!$A$40,Skills!$A$41,Skills!$A$45,Skills!$A$47)</c:f>
+              <c:f>(Skills!$A$5,Skills!$A$18,Skills!$A$20,Skills!$A$30,Skills!$A$33,Skills!$A$48,Skills!$A$49,Skills!$A$50,Skills!$A$54,Skills!$A$56)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3656,7 +3710,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Skills!$C$5,Skills!$C$18,Skills!$C$20,Skills!$C$30,Skills!$C$33,Skills!$C$39,Skills!$C$40,Skills!$C$41,Skills!$C$45,Skills!$C$47)</c:f>
+              <c:f>(Skills!$C$5,Skills!$C$18,Skills!$C$20,Skills!$C$30,Skills!$C$33,Skills!$C$48,Skills!$C$49,Skills!$C$50,Skills!$C$54,Skills!$C$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5853,9 +5907,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Skills!$A$2:$A$48</c:f>
+              <c:f>Skills!$A$2:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>AppSec: SAST, DAST, Etc.</c:v>
                 </c:pt>
@@ -5962,36 +6016,63 @@
                   <c:v>Soft Skills: Business Review</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>Soft Skills: Business Acumen</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Soft Skills: Leadership</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>Soft Skills: Legal Review</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>Soft Skills: Interpersonal Skills</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>Soft Skills: Motivation</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Soft Skills: Delegation</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Soft Skills: Emotional Intelligence</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Soft Skills: Relationship-Building</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Soft Skills: Time Management</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Soft Skills: Conflict Resolution</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Soft Skills: Strategic Thinking</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>Soft Skills: Verbal Communication</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>Soft Skills: Written Communication</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>Technical Writing, Diagramming, &amp; Documentation</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>Ticket Management</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>Threat Research / Intelligence / Hunting</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>Threat Modeling</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>Vulnerability Testing / Scanning</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>Virtualization / Hyper-V / Vmware / VDI</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>Writing &amp; Management of Governance: Policies, Standards, Procedures</c:v>
                 </c:pt>
               </c:strCache>
@@ -5999,10 +6080,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Skills!$C$2:$C$48</c:f>
+              <c:f>Skills!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="56"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7387,10 +7468,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7428,7 +7509,7 @@
         <cx:series layoutId="treemap" uniqueId="{4B05CF23-6C5B-4762-8265-28E1C85508C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Weight for Association</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7472,10 +7553,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7510,7 +7591,7 @@
         <cx:series layoutId="treemap" uniqueId="{05B1019D-FB0E-4851-B74D-CE65FA35B4E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Weight</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17446,7 +17527,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>474869</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -17518,13 +17599,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>52457</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>33681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3589132</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18478,7 +18559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29649E-0BEE-442F-9E12-CC5EDAA3D6A7}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19812,11 +19893,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A048F9-70A9-4F0D-9133-E313C4308B8B}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20193,123 +20274,213 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
-    <sortCondition ref="A2:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
+    <sortCondition ref="A2:A57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
